--- a/biology/Médecine/Isothiocyanate_de_fluorescéine/Isothiocyanate_de_fluorescéine.xlsx
+++ b/biology/Médecine/Isothiocyanate_de_fluorescéine/Isothiocyanate_de_fluorescéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isothiocyanate_de_fluoresc%C3%A9ine</t>
+          <t>Isothiocyanate_de_fluorescéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'isothiocyanate de fluorescéine ou FITC est un dérivé de la fluorescéine, utilisé dans un large spectre d'applications comme la cytométrie en flux. Le FITC est une molécule de fluorescéine fonctionnalisée avec un groupe réactif isothiocyanate (-N=C=S), remplaçant un atome d'hydrogène sur le cycle le plus bas de la structure. Ce dérivé réagit avec les nucléophiles comme les groupes amines et sulfhydryles des protéines.  
